--- a/Document/Data/Data-Preparat.xlsx
+++ b/Document/Data/Data-Preparat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad Naufal\Downloads\Laprak\Laporan-Praktikum-Eksperimen-Fisika\Document\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA44A37-694C-4BB6-8620-5095D09991D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC43B4CF-34C1-488B-86D9-550F0500136F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Na-22" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="11">
   <si>
     <t>n</t>
   </si>
@@ -58,13 +58,16 @@
     <t>n!</t>
   </si>
   <si>
-    <t>w=h/i</t>
+    <t>ln(w.n!)</t>
   </si>
   <si>
-    <t xml:space="preserve">w = </t>
+    <t>h</t>
   </si>
   <si>
-    <t>ln(w.n!)</t>
+    <t>w</t>
+  </si>
+  <si>
+    <t>n^2</t>
   </si>
 </sst>
 </file>
@@ -3409,7 +3412,536 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Am-241'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(w.n!)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17509908136482941"/>
+                  <c:y val="-7.9542140565762613E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Am-241'!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Am-241'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-1.8971199848858813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3318061758358208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.53102833108351022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10975086395911929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33074156191222798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5173226235262947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7509374747077999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3899948043230586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D557-4467-8312-CE73928274AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1886131151"/>
+        <c:axId val="1876191759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1886131151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876191759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1876191759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886131151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3965,17 +4497,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>483</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>497</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -3986,6 +5034,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F479560-5F4E-4217-BE32-6708C790D052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE4F067-769F-4CE9-8933-D2326054144F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4269,20 +5358,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4299,13 +5386,25 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4322,18 +5421,29 @@
         <v>85</v>
       </c>
       <c r="F2">
-        <f>FACT(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>F2^2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>FACT(F2)</f>
         <v>1</v>
       </c>
-      <c r="G2">
-        <f>LN(F2*(6.62*10^-34/500))</f>
-        <v>-82.612405890270821</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>85</v>
+      </c>
+      <c r="J2">
+        <f>I2/500</f>
+        <v>0.17</v>
+      </c>
+      <c r="K2">
+        <f>LN(J2*H2)</f>
+        <v>-1.7719568419318752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4350,22 +5460,29 @@
         <v>155</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">FACT(A3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">LN(F3*(6.62*10^-34/500))</f>
-        <v>-81.919258709710888</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <f>6.62*10^-34/500</f>
-        <v>1.3240000000000002E-36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G3:G9" si="0">F3^2</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="1">FACT(F3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>155</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="2">I3/500</f>
+        <v>0.31</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="3">LN(J3*H3)</f>
+        <v>-1.1711829815029451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4382,15 +5499,29 @@
         <v>136</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="1"/>
-        <v>-80.820646421042767</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>136</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>-0.60880603212619433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4407,15 +5538,29 @@
         <v>77</v>
       </c>
       <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>-79.434352059922887</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>77</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.154</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>-7.9043207340452962E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4432,15 +5577,29 @@
         <v>31</v>
       </c>
       <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>-77.824914147488784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.39743293641090011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4457,15 +5616,29 @@
         <v>10</v>
       </c>
       <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>-76.033154678260729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.87546873735389985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4482,15 +5655,29 @@
         <v>5</v>
       </c>
       <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>5040</v>
-      </c>
-      <c r="G8">
+        <v>36</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>-74.087244529205407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>1.9740810260220096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4507,15 +5694,29 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>40320</v>
-      </c>
-      <c r="G9">
+        <v>49</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>-72.007802987525579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5040</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>2.3105532626432224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4531,16 +5732,8 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>362880</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>-69.810578410189365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4556,16 +5749,8 @@
       <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>3628800</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>-67.507993317195314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4581,16 +5766,8 @@
       <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>39916800</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>-65.110098044396949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4606,16 +5783,8 @@
       <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>479001600</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>-62.62519139460894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4631,16 +5800,8 @@
       <c r="E14" t="s">
         <v>3</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>6227020800</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>-60.060242037147404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4656,16 +5817,8 @@
       <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>87178291200</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>-57.421184707532149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4681,16 +5834,8 @@
       <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1307674368000</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>-54.713134506429938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4706,16 +5851,8 @@
       <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>20922789888000</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>-51.940545784190157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4731,16 +5868,8 @@
       <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>355687428096000</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>-49.107332440133938</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4756,16 +5885,8 @@
       <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>6402373705728000</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>-46.216960682237776</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4781,16 +5902,8 @@
       <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1.21645100408832E+17</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>-43.272521703071334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4806,16 +5919,8 @@
       <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>2.43290200817664E+18</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>-40.276789429517343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4831,16 +5936,8 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>5.109094217170944E+19</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>-37.232266991793921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4856,16 +5953,8 @@
       <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1.1240007277776077E+21</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>-34.141224538435601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4881,16 +5970,8 @@
       <c r="E24" t="s">
         <v>3</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>2.5852016738884978E+22</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>-31.005730322506455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4906,16 +5987,8 @@
       <c r="E25" t="s">
         <v>3</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>6.2044840173323941E+23</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>-27.82767649215851</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4931,16 +6004,8 @@
       <c r="E26" t="s">
         <v>3</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>1.5511210043330984E+25</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>-24.608800667290307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4956,16 +6021,8 @@
       <c r="E27" t="s">
         <v>3</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>4.0329146112660572E+26</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>-21.350704129268827</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4981,16 +6038,8 @@
       <c r="E28" t="s">
         <v>3</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>1.0888869450418352E+28</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>-18.054867263264498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5006,16 +6055,8 @@
       <c r="E29" t="s">
         <v>3</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>3.048883446117138E+29</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>-14.722662753089294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5031,16 +6072,8 @@
       <c r="E30" t="s">
         <v>3</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>8.8417619937397008E+30</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>-11.355366923102819</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5056,16 +6089,8 @@
       <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>2.652528598121911E+32</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>-7.9541695414406632</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5081,16 +6106,8 @@
       <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>8.2228386541779236E+33</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>-4.520182336955517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5106,16 +6123,8 @@
       <c r="E33" t="s">
         <v>3</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>2.6313083693369355E+35</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>-1.0544464341557906</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5131,16 +6140,8 @@
       <c r="E34" t="s">
         <v>3</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>8.6833176188118895E+36</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>2.4420611273106898</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5156,16 +6157,8 @@
       <c r="E35" t="s">
         <v>3</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>2.9523279903960408E+38</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>5.9684216519268505</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5181,16 +6174,8 @@
       <c r="E36" t="s">
         <v>3</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>1.0333147966386144E+40</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>9.5237697134162644</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5206,16 +6191,8 @@
       <c r="E37" t="s">
         <v>3</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>3.7199332678990133E+41</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>13.107288651872375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5231,16 +6208,8 @@
       <c r="E38" t="s">
         <v>3</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>1.3763753091226346E+43</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>16.718206564516599</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5256,16 +6225,8 @@
       <c r="E39" t="s">
         <v>3</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>5.2302261746660104E+44</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>20.355792724242985</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5281,16 +6242,8 @@
       <c r="E40" t="s">
         <v>3</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>2.0397882081197447E+46</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>24.019354370372632</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5306,16 +6259,8 @@
       <c r="E41" t="s">
         <v>3</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>8.1591528324789801E+47</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>27.708233824486566</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5331,16 +6276,8 @@
       <c r="E42" t="s">
         <v>3</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>3.3452526613163798E+49</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>31.421805891190875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5356,16 +6293,8 @@
       <c r="E43" t="s">
         <v>3</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>1.4050061177528801E+51</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>35.159475509474241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5381,16 +6310,8 @@
       <c r="E44" t="s">
         <v>3</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>6.0415263063373845E+52</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>38.920675625167803</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5406,16 +6327,8 @@
       <c r="E45" t="s">
         <v>3</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>2.6582715747884495E+54</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>42.70486525908607</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5431,16 +6344,8 @@
       <c r="E46" t="s">
         <v>3</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>1.1962222086548021E+56</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>46.511527748856388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5456,16 +6361,8 @@
       <c r="E47" t="s">
         <v>3</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>5.5026221598120892E+57</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>50.340169145345484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5481,16 +6378,8 @@
       <c r="E48" t="s">
         <v>3</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>2.5862324151116827E+59</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>54.19031674705554</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5506,16 +6395,8 @@
       <c r="E49" t="s">
         <v>3</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>1.2413915592536068E+61</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>58.061517757963429</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5531,16 +6412,8 @@
       <c r="E50" t="s">
         <v>3</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>6.0828186403426789E+62</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>61.95333805607406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5556,16 +6429,8 @@
       <c r="E51" t="s">
         <v>3</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>3.0414093201713376E+64</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>65.865361061502199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5581,16 +6446,8 @@
       <c r="E52" t="s">
         <v>3</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>1.5511187532873816E+66</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>69.797186694226525</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5606,16 +6463,8 @@
       <c r="E53" t="s">
         <v>3</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>8.0658175170943901E+67</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>73.748430412807963</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5631,16 +6480,8 @@
       <c r="E54" t="s">
         <v>3</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>4.274883284060024E+69</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>77.71872232636008</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5656,16 +6497,8 @@
       <c r="E55" t="s">
         <v>3</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>2.3084369733924128E+71</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>81.707706372924349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5681,16 +6514,8 @@
       <c r="E56" t="s">
         <v>3</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>1.2696403353658264E+73</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>85.715039558156818</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5706,16 +6531,8 @@
       <c r="E57" t="s">
         <v>3</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>7.1099858780486318E+74</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>89.740391248891967</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5731,16 +6548,8 @@
       <c r="E58" t="s">
         <v>3</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>4.0526919504877227E+76</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>93.783442516726524</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5756,16 +6565,8 @@
       <c r="E59" t="s">
         <v>3</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>2.3505613312828789E+78</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>97.843885527272946</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5781,16 +6582,8 @@
       <c r="E60" t="s">
         <v>3</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>1.3868311854568981E+80</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>101.92142297117866</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5806,16 +6599,8 @@
       <c r="E61" t="s">
         <v>3</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>8.3209871127413899E+81</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>106.01576753340076</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5831,16 +6616,8 @@
       <c r="E62" t="s">
         <v>3</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>5.0758021387722462E+83</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="1"/>
-        <v>110.12664139757408</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5856,16 +6633,8 @@
       <c r="E63" t="s">
         <v>3</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>3.1469973260387939E+85</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="1"/>
-        <v>114.25377578261917</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5881,16 +6650,8 @@
       <c r="E64" t="s">
         <v>3</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>1.9826083154044396E+87</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="1"/>
-        <v>118.3969105090107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5906,16 +6667,8 @@
       <c r="E65" t="s">
         <v>3</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>1.2688693218588414E+89</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="1"/>
-        <v>122.55579359237036</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5931,16 +6684,8 @@
       <c r="E66" t="s">
         <v>3</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>8.2476505920824715E+90</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="1"/>
-        <v>126.73018086226601</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5956,16 +6701,8 @@
       <c r="E67" t="s">
         <v>3</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F130" si="2">FACT(A67)</f>
-        <v>5.4434493907744319E+92</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G130" si="3">LN(F67*(6.62*10^-34/500))</f>
-        <v>130.91983560429244</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5981,16 +6718,8 @@
       <c r="E68" t="s">
         <v>3</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="2"/>
-        <v>3.6471110918188705E+94</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="3"/>
-        <v>135.1245282236834</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6006,16 +6735,8 @@
       <c r="E69" t="s">
         <v>3</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="2"/>
-        <v>2.4800355424368301E+96</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="3"/>
-        <v>139.34403592885951</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6031,16 +6752,8 @@
       <c r="E70" t="s">
         <v>3</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="2"/>
-        <v>1.7112245242814127E+98</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="3"/>
-        <v>143.57814243345678</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6056,16 +6769,8 @@
       <c r="E71" t="s">
         <v>3</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="2"/>
-        <v>1.1978571669969892E+100</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="3"/>
-        <v>147.82663767550613</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6081,16 +6786,8 @@
       <c r="E72" t="s">
         <v>3</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="2"/>
-        <v>8.5047858856786242E+101</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="3"/>
-        <v>152.08931755254744</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6106,16 +6803,8 @@
       <c r="E73" t="s">
         <v>3</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="2"/>
-        <v>6.1234458376886116E+103</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="3"/>
-        <v>156.3659836715635</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6131,16 +6820,8 @@
       <c r="E74" t="s">
         <v>3</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="2"/>
-        <v>4.4701154615126859E+105</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="3"/>
-        <v>160.65644311271188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6156,16 +6837,8 @@
       <c r="E75" t="s">
         <v>3</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="2"/>
-        <v>3.3078854415193869E+107</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="3"/>
-        <v>164.96050820591606</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6181,16 +6854,8 @@
       <c r="E76" t="s">
         <v>3</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="2"/>
-        <v>2.4809140811395404E+109</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="3"/>
-        <v>169.27799631945237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6206,16 +6871,8 @@
       <c r="E77" t="s">
         <v>3</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="2"/>
-        <v>1.8854947016660506E+111</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="3"/>
-        <v>173.60872965973869</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6231,16 +6888,8 @@
       <c r="E78" t="s">
         <v>3</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="2"/>
-        <v>1.4518309202828591E+113</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="3"/>
-        <v>177.95253508159237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6256,16 +6905,8 @@
       <c r="E79" t="s">
         <v>3</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="2"/>
-        <v>1.1324281178206295E+115</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="3"/>
-        <v>182.30924390828199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6281,16 +6922,8 @@
       <c r="E80" t="s">
         <v>3</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="2"/>
-        <v>8.9461821307829799E+116</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="3"/>
-        <v>186.67869176074899</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6306,16 +6939,8 @@
       <c r="E81" t="s">
         <v>3</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="2"/>
-        <v>7.1569457046263797E+118</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="3"/>
-        <v>191.06071839542287</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6331,16 +6956,8 @@
       <c r="E82" t="s">
         <v>3</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="2"/>
-        <v>5.797126020747369E+120</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="3"/>
-        <v>195.45516755009533</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6356,16 +6973,8 @@
       <c r="E83" t="s">
         <v>3</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="2"/>
-        <v>4.7536433370128435E+122</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="3"/>
-        <v>199.86188679735957</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6381,16 +6990,8 @@
       <c r="E84" t="s">
         <v>3</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="2"/>
-        <v>3.9455239697206602E+124</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="3"/>
-        <v>204.28072740515617</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6406,16 +7007,8 @@
       <c r="E85" t="s">
         <v>3</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="2"/>
-        <v>3.3142401345653538E+126</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="3"/>
-        <v>208.71154420399947</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6431,16 +7024,8 @@
       <c r="E86" t="s">
         <v>3</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="2"/>
-        <v>2.8171041143805494E+128</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="3"/>
-        <v>213.1541954604898</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6456,16 +7041,8 @@
       <c r="E87" t="s">
         <v>3</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="2"/>
-        <v>2.4227095383672744E+130</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="3"/>
-        <v>217.6085427567433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6481,16 +7058,8 @@
       <c r="E88" t="s">
         <v>3</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="2"/>
-        <v>2.1077572983795269E+132</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="3"/>
-        <v>222.0744508753979</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6506,16 +7075,8 @@
       <c r="E89" t="s">
         <v>3</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="2"/>
-        <v>1.854826422573984E+134</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="3"/>
-        <v>226.55178768987611</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6531,16 +7092,8 @@
       <c r="E90" t="s">
         <v>3</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="2"/>
-        <v>1.6507955160908465E+136</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="3"/>
-        <v>231.04042405960823</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6556,16 +7109,8 @@
       <c r="E91" t="s">
         <v>3</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="2"/>
-        <v>1.4857159644817605E+138</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="3"/>
-        <v>235.54023372993851</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6581,16 +7126,8 @@
       <c r="E92" t="s">
         <v>3</v>
       </c>
-      <c r="F92">
-        <f t="shared" si="2"/>
-        <v>1.3520015276784033E+140</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="3"/>
-        <v>240.05109323645536</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6606,16 +7143,8 @@
       <c r="E93" t="s">
         <v>3</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="2"/>
-        <v>1.2438414054641305E+142</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="3"/>
-        <v>244.57288181350438</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6631,16 +7160,8 @@
       <c r="E94" t="s">
         <v>3</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="2"/>
-        <v>1.156772507081641E+144</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="3"/>
-        <v>249.10548130665765</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6656,16 +7177,8 @@
       <c r="E95" t="s">
         <v>3</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="2"/>
-        <v>1.0873661566567426E+146</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="3"/>
-        <v>253.64877608892766</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6681,16 +7194,8 @@
       <c r="E96" t="s">
         <v>3</v>
       </c>
-      <c r="F96">
-        <f t="shared" si="2"/>
-        <v>1.0329978488239061E+148</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="3"/>
-        <v>258.20265298052817</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6706,16 +7211,8 @@
       <c r="E97" t="s">
         <v>3</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="2"/>
-        <v>9.916779348709491E+149</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="3"/>
-        <v>262.76700117199601</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6731,16 +7228,8 @@
       <c r="E98" t="s">
         <v>3</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="2"/>
-        <v>9.6192759682482155E+151</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="3"/>
-        <v>267.3417121504994</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6756,16 +7245,8 @@
       <c r="E99" t="s">
         <v>3</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="2"/>
-        <v>9.426890448883248E+153</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="3"/>
-        <v>271.92667962917</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6781,16 +7262,8 @@
       <c r="E100" t="s">
         <v>3</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="2"/>
-        <v>9.3326215443944153E+155</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="3"/>
-        <v>276.52179947930455</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6806,16 +7279,8 @@
       <c r="E101" t="s">
         <v>3</v>
       </c>
-      <c r="F101">
-        <f t="shared" si="2"/>
-        <v>9.3326215443944175E+157</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="3"/>
-        <v>281.12696966529268</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6831,16 +7296,8 @@
       <c r="E102" t="s">
         <v>3</v>
       </c>
-      <c r="F102">
-        <f t="shared" si="2"/>
-        <v>9.4259477598383599E+159</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="3"/>
-        <v>285.74209018213395</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6856,16 +7313,8 @@
       <c r="E103" t="s">
         <v>3</v>
       </c>
-      <c r="F103">
-        <f t="shared" si="2"/>
-        <v>9.6144667150351251E+161</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="3"/>
-        <v>290.36706299541817</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6881,16 +7330,8 @@
       <c r="E104" t="s">
         <v>3</v>
       </c>
-      <c r="F104">
-        <f t="shared" si="2"/>
-        <v>9.9029007164861779E+163</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="3"/>
-        <v>295.00179198364782</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6906,16 +7347,8 @@
       <c r="E105" t="s">
         <v>3</v>
       </c>
-      <c r="F105">
-        <f t="shared" si="2"/>
-        <v>1.0299016745145631E+166</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="3"/>
-        <v>299.64618288278922</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6931,16 +7364,8 @@
       <c r="E106" t="s">
         <v>3</v>
       </c>
-      <c r="F106">
-        <f t="shared" si="2"/>
-        <v>1.0813967582402912E+168</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="3"/>
-        <v>304.30014323294671</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6956,16 +7381,8 @@
       <c r="E107" t="s">
         <v>3</v>
       </c>
-      <c r="F107">
-        <f t="shared" si="2"/>
-        <v>1.1462805637347086E+170</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="3"/>
-        <v>308.96358232705882</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6981,16 +7398,8 @@
       <c r="E108" t="s">
         <v>3</v>
       </c>
-      <c r="F108">
-        <f t="shared" si="2"/>
-        <v>1.2265202031961373E+172</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="3"/>
-        <v>313.6364111615207</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7006,16 +7415,8 @@
       <c r="E109" t="s">
         <v>3</v>
       </c>
-      <c r="F109">
-        <f t="shared" si="2"/>
-        <v>1.324641819451829E+174</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="3"/>
-        <v>318.31854238864491</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7031,16 +7432,8 @@
       <c r="E110" t="s">
         <v>3</v>
       </c>
-      <c r="F110">
-        <f t="shared" si="2"/>
-        <v>1.4438595832024942E+176</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="3"/>
-        <v>323.00989027087405</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7056,16 +7449,8 @@
       <c r="E111" t="s">
         <v>3</v>
       </c>
-      <c r="F111">
-        <f t="shared" si="2"/>
-        <v>1.5882455415227423E+178</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="3"/>
-        <v>327.71037063666648</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7081,16 +7466,8 @@
       <c r="E112" t="s">
         <v>3</v>
       </c>
-      <c r="F112">
-        <f t="shared" si="2"/>
-        <v>1.7629525510902457E+180</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="3"/>
-        <v>332.41990083797879</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7106,16 +7483,8 @@
       <c r="E113" t="s">
         <v>3</v>
       </c>
-      <c r="F113">
-        <f t="shared" si="2"/>
-        <v>1.9745068572210749E+182</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="3"/>
-        <v>337.13839970927393</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7131,16 +7500,8 @@
       <c r="E114" t="s">
         <v>3</v>
       </c>
-      <c r="F114">
-        <f t="shared" si="2"/>
-        <v>2.2311927486598138E+184</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="3"/>
-        <v>341.86578752798624</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7156,16 +7517,8 @@
       <c r="E115" t="s">
         <v>3</v>
       </c>
-      <c r="F115">
-        <f t="shared" si="2"/>
-        <v>2.5435597334721862E+186</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="3"/>
-        <v>346.60198597638072</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7181,16 +7534,8 @@
       <c r="E116" t="s">
         <v>3</v>
       </c>
-      <c r="F116">
-        <f t="shared" si="2"/>
-        <v>2.9250936934930141E+188</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="3"/>
-        <v>351.34691810474396</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7206,16 +7551,8 @@
       <c r="E117" t="s">
         <v>3</v>
       </c>
-      <c r="F117">
-        <f t="shared" si="2"/>
-        <v>3.3931086844518989E+190</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="3"/>
-        <v>356.10050829585037</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7231,16 +7568,8 @@
       <c r="E118" t="s">
         <v>3</v>
       </c>
-      <c r="F118">
-        <f t="shared" si="2"/>
-        <v>3.96993716080872E+192</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="3"/>
-        <v>360.86268223064809</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7256,16 +7585,8 @@
       <c r="E119" t="s">
         <v>3</v>
       </c>
-      <c r="F119">
-        <f t="shared" si="2"/>
-        <v>4.6845258497542896E+194</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="3"/>
-        <v>365.63336685511376</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7281,16 +7602,8 @@
       <c r="E120" t="s">
         <v>3</v>
       </c>
-      <c r="F120">
-        <f t="shared" si="2"/>
-        <v>5.5745857612076058E+196</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="3"/>
-        <v>370.41249034822533</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7306,16 +7619,8 @@
       <c r="E121" t="s">
         <v>3</v>
       </c>
-      <c r="F121">
-        <f t="shared" si="2"/>
-        <v>6.6895029134491346E+198</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="3"/>
-        <v>375.19998209100737</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7331,16 +7636,8 @@
       <c r="E122" t="s">
         <v>3</v>
       </c>
-      <c r="F122">
-        <f t="shared" si="2"/>
-        <v>8.0942985252734441E+200</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="3"/>
-        <v>379.9957726366041</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7356,16 +7653,8 @@
       <c r="E123" t="s">
         <v>3</v>
       </c>
-      <c r="F123">
-        <f t="shared" si="2"/>
-        <v>9.8750442008336011E+202</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="3"/>
-        <v>384.79979368133735</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7381,16 +7670,8 @@
       <c r="E124" t="s">
         <v>3</v>
       </c>
-      <c r="F124">
-        <f t="shared" si="2"/>
-        <v>1.2146304367025332E+205</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="3"/>
-        <v>389.61197803670979</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7406,16 +7687,8 @@
       <c r="E125" t="s">
         <v>3</v>
       </c>
-      <c r="F125">
-        <f t="shared" si="2"/>
-        <v>1.5061417415111409E+207</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="3"/>
-        <v>394.43225960231479</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7431,16 +7704,8 @@
       <c r="E126" t="s">
         <v>3</v>
       </c>
-      <c r="F126">
-        <f t="shared" si="2"/>
-        <v>1.8826771768889261E+209</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="3"/>
-        <v>399.26057333961711</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7456,16 +7721,8 @@
       <c r="E127" t="s">
         <v>3</v>
       </c>
-      <c r="F127">
-        <f t="shared" si="2"/>
-        <v>2.3721732428800483E+211</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="3"/>
-        <v>404.09685524656857</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7481,16 +7738,8 @@
       <c r="E128" t="s">
         <v>3</v>
       </c>
-      <c r="F128">
-        <f t="shared" si="2"/>
-        <v>3.0126600184576624E+213</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="3"/>
-        <v>408.94104233302716</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7506,16 +7755,8 @@
       <c r="E129" t="s">
         <v>3</v>
       </c>
-      <c r="F129">
-        <f t="shared" si="2"/>
-        <v>3.8562048236258079E+215</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="3"/>
-        <v>413.79307259694679</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7531,16 +7772,8 @@
       <c r="E130" t="s">
         <v>3</v>
       </c>
-      <c r="F130">
-        <f t="shared" si="2"/>
-        <v>4.9745042224772875E+217</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="3"/>
-        <v>418.65288500130845</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7556,16 +7789,8 @@
       <c r="E131" t="s">
         <v>3</v>
       </c>
-      <c r="F131">
-        <f t="shared" ref="F131:F194" si="4">FACT(A131)</f>
-        <v>6.4668554892204729E+219</v>
-      </c>
-      <c r="G131">
-        <f t="shared" ref="G131:G194" si="5">LN(F131*(6.62*10^-34/500))</f>
-        <v>423.52041945176404</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7581,16 +7806,8 @@
       <c r="E132" t="s">
         <v>3</v>
       </c>
-      <c r="F132">
-        <f t="shared" si="4"/>
-        <v>8.4715806908788126E+221</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="5"/>
-        <v>428.39561677496522</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7606,16 +7823,8 @@
       <c r="E133" t="s">
         <v>3</v>
       </c>
-      <c r="F133">
-        <f t="shared" si="4"/>
-        <v>1.1182486511960037E+224</v>
-      </c>
-      <c r="G133">
-        <f t="shared" si="5"/>
-        <v>433.27841869755156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7631,16 +7840,8 @@
       <c r="E134" t="s">
         <v>3</v>
       </c>
-      <c r="F134">
-        <f t="shared" si="4"/>
-        <v>1.4872707060906847E+226</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="5"/>
-        <v>438.16876782577333</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7656,16 +7857,8 @@
       <c r="E135" t="s">
         <v>3</v>
       </c>
-      <c r="F135">
-        <f t="shared" si="4"/>
-        <v>1.9929427461615201E+228</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="5"/>
-        <v>443.06660762572426</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7681,16 +7874,8 @@
       <c r="E136" t="s">
         <v>3</v>
       </c>
-      <c r="F136">
-        <f t="shared" si="4"/>
-        <v>2.6904727073180491E+230</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="5"/>
-        <v>447.97188240416267</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7706,16 +7891,8 @@
       <c r="E137" t="s">
         <v>3</v>
       </c>
-      <c r="F137">
-        <f t="shared" si="4"/>
-        <v>3.6590428819525483E+232</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="5"/>
-        <v>452.88453728989873</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7731,16 +7908,8 @@
       <c r="E138" t="s">
         <v>3</v>
       </c>
-      <c r="F138">
-        <f t="shared" si="4"/>
-        <v>5.0128887482749884E+234</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="5"/>
-        <v>457.80451821572683</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7756,16 +7925,8 @@
       <c r="E139" t="s">
         <v>3</v>
       </c>
-      <c r="F139">
-        <f t="shared" si="4"/>
-        <v>6.9177864726194823E+236</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="5"/>
-        <v>462.73177190088404</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7781,16 +7942,8 @@
       <c r="E140" t="s">
         <v>3</v>
       </c>
-      <c r="F140">
-        <f t="shared" si="4"/>
-        <v>9.6157231969410894E+238</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="5"/>
-        <v>467.66624583401472</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7806,16 +7959,8 @@
       <c r="E141" t="s">
         <v>3</v>
       </c>
-      <c r="F141">
-        <f t="shared" si="4"/>
-        <v>1.3462012475717523E+241</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="5"/>
-        <v>472.60788825662405</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7831,16 +7976,8 @@
       <c r="E142" t="s">
         <v>3</v>
       </c>
-      <c r="F142">
-        <f t="shared" si="4"/>
-        <v>1.8981437590761713E+243</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="5"/>
-        <v>477.55664814700219</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7856,16 +7993,8 @@
       <c r="E143" t="s">
         <v>3</v>
       </c>
-      <c r="F143">
-        <f t="shared" si="4"/>
-        <v>2.6953641378881633E+245</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="5"/>
-        <v>482.51247520460345</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7881,16 +8010,8 @@
       <c r="E144" t="s">
         <v>3</v>
       </c>
-      <c r="F144">
-        <f t="shared" si="4"/>
-        <v>3.8543707171800694E+247</v>
-      </c>
-      <c r="G144">
-        <f t="shared" si="5"/>
-        <v>487.4753198348634</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7906,16 +8027,8 @@
       <c r="E145" t="s">
         <v>3</v>
       </c>
-      <c r="F145">
-        <f t="shared" si="4"/>
-        <v>5.5502938327393076E+249</v>
-      </c>
-      <c r="G145">
-        <f t="shared" si="5"/>
-        <v>492.4451331344394</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7931,16 +8044,8 @@
       <c r="E146" t="s">
         <v>3</v>
       </c>
-      <c r="F146">
-        <f t="shared" si="4"/>
-        <v>8.0479260574719887E+251</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="5"/>
-        <v>497.42186687685995</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7956,16 +8061,8 @@
       <c r="E147" t="s">
         <v>3</v>
       </c>
-      <c r="F147">
-        <f t="shared" si="4"/>
-        <v>1.1749972043909107E+254</v>
-      </c>
-      <c r="G147">
-        <f t="shared" si="5"/>
-        <v>502.40547349856831</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7981,16 +8078,8 @@
       <c r="E148" t="s">
         <v>3</v>
       </c>
-      <c r="F148">
-        <f t="shared" si="4"/>
-        <v>1.7272458904546399E+256</v>
-      </c>
-      <c r="G148">
-        <f t="shared" si="5"/>
-        <v>507.39590608534701</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8006,16 +8095,8 @@
       <c r="E149" t="s">
         <v>3</v>
       </c>
-      <c r="F149">
-        <f t="shared" si="4"/>
-        <v>2.5563239178728637E+258</v>
-      </c>
-      <c r="G149">
-        <f t="shared" si="5"/>
-        <v>512.3931183591111</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8031,16 +8112,8 @@
       <c r="E150" t="s">
         <v>3</v>
       </c>
-      <c r="F150">
-        <f t="shared" si="4"/>
-        <v>3.8089226376305687E+260</v>
-      </c>
-      <c r="G150">
-        <f t="shared" si="5"/>
-        <v>517.39706466505663</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8056,16 +8129,8 @@
       <c r="E151" t="s">
         <v>3</v>
       </c>
-      <c r="F151">
-        <f t="shared" si="4"/>
-        <v>5.7133839564458575E+262</v>
-      </c>
-      <c r="G151">
-        <f t="shared" si="5"/>
-        <v>522.40769995915286</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8081,16 +8146,8 @@
       <c r="E152" t="s">
         <v>3</v>
       </c>
-      <c r="F152">
-        <f t="shared" si="4"/>
-        <v>8.6272097742332436E+264</v>
-      </c>
-      <c r="G152">
-        <f t="shared" si="5"/>
-        <v>527.42497979596783</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8106,16 +8163,8 @@
       <c r="E153" t="s">
         <v>3</v>
       </c>
-      <c r="F153">
-        <f t="shared" si="4"/>
-        <v>1.3113358856834527E+267</v>
-      </c>
-      <c r="G153">
-        <f t="shared" si="5"/>
-        <v>532.44886031681403</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8131,16 +8180,8 @@
       <c r="E154" t="s">
         <v>3</v>
       </c>
-      <c r="F154">
-        <f t="shared" si="4"/>
-        <v>2.0063439050956838E+269</v>
-      </c>
-      <c r="G154">
-        <f t="shared" si="5"/>
-        <v>537.47929823820652</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8156,16 +8197,8 @@
       <c r="E155" t="s">
         <v>3</v>
       </c>
-      <c r="F155">
-        <f t="shared" si="4"/>
-        <v>3.0897696138473515E+271</v>
-      </c>
-      <c r="G155">
-        <f t="shared" si="5"/>
-        <v>542.51625084062016</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8181,16 +8214,8 @@
       <c r="E156" t="s">
         <v>3</v>
       </c>
-      <c r="F156">
-        <f t="shared" si="4"/>
-        <v>4.7891429014633931E+273</v>
-      </c>
-      <c r="G156">
-        <f t="shared" si="5"/>
-        <v>547.55967595753941</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8206,16 +8231,8 @@
       <c r="E157" t="s">
         <v>3</v>
       </c>
-      <c r="F157">
-        <f t="shared" si="4"/>
-        <v>7.4710629262828918E+275</v>
-      </c>
-      <c r="G157">
-        <f t="shared" si="5"/>
-        <v>552.60953196478886</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8231,16 +8248,8 @@
       <c r="E158" t="s">
         <v>3</v>
       </c>
-      <c r="F158">
-        <f t="shared" si="4"/>
-        <v>1.1729568794264134E+278</v>
-      </c>
-      <c r="G158">
-        <f t="shared" si="5"/>
-        <v>557.6657777701372</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8256,16 +8265,8 @@
       <c r="E159" t="s">
         <v>3</v>
       </c>
-      <c r="F159">
-        <f t="shared" si="4"/>
-        <v>1.8532718694937346E+280</v>
-      </c>
-      <c r="G159">
-        <f t="shared" si="5"/>
-        <v>562.72837280316423</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8281,16 +8282,8 @@
       <c r="E160" t="s">
         <v>3</v>
       </c>
-      <c r="F160">
-        <f t="shared" si="4"/>
-        <v>2.9467022724950358E+282</v>
-      </c>
-      <c r="G160">
-        <f t="shared" si="5"/>
-        <v>567.79727700538444</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8306,16 +8299,8 @@
       <c r="E161" t="s">
         <v>3</v>
       </c>
-      <c r="F161">
-        <f t="shared" si="4"/>
-        <v>4.7147236359920609E+284</v>
-      </c>
-      <c r="G161">
-        <f t="shared" si="5"/>
-        <v>572.87245082061827</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8331,16 +8316,8 @@
       <c r="E162" t="s">
         <v>3</v>
       </c>
-      <c r="F162">
-        <f t="shared" si="4"/>
-        <v>7.5907050539472232E+286</v>
-      </c>
-      <c r="G162">
-        <f t="shared" si="5"/>
-        <v>577.95385518560272</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8356,16 +8333,8 @@
       <c r="E163" t="s">
         <v>3</v>
       </c>
-      <c r="F163">
-        <f t="shared" si="4"/>
-        <v>1.2296942187394494E+289</v>
-      </c>
-      <c r="G163">
-        <f t="shared" si="5"/>
-        <v>583.04145152083504</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8381,16 +8350,8 @@
       <c r="E164" t="s">
         <v>3</v>
       </c>
-      <c r="F164">
-        <f t="shared" si="4"/>
-        <v>2.0044015765453032E+291</v>
-      </c>
-      <c r="G164">
-        <f t="shared" si="5"/>
-        <v>588.13520172164181</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8406,16 +8367,8 @@
       <c r="E165" t="s">
         <v>3</v>
       </c>
-      <c r="F165">
-        <f t="shared" si="4"/>
-        <v>3.2872185855342987E+293</v>
-      </c>
-      <c r="G165">
-        <f t="shared" si="5"/>
-        <v>593.23506814946609</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8431,16 +8384,8 @@
       <c r="E166" t="s">
         <v>3</v>
       </c>
-      <c r="F166">
-        <f t="shared" si="4"/>
-        <v>5.4239106661315832E+295</v>
-      </c>
-      <c r="G166">
-        <f t="shared" si="5"/>
-        <v>598.34101362336662</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8456,16 +8401,8 @@
       <c r="E167" t="s">
         <v>3</v>
       </c>
-      <c r="F167">
-        <f t="shared" si="4"/>
-        <v>9.0036917057784341E+297</v>
-      </c>
-      <c r="G167">
-        <f t="shared" si="5"/>
-        <v>603.45300141172322</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8481,16 +8418,8 @@
       <c r="E168" t="s">
         <v>3</v>
       </c>
-      <c r="F168">
-        <f t="shared" si="4"/>
-        <v>1.5036165148649983E+300</v>
-      </c>
-      <c r="G168">
-        <f t="shared" si="5"/>
-        <v>608.57099522413989</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8506,16 +8435,8 @@
       <c r="E169" t="s">
         <v>3</v>
       </c>
-      <c r="F169">
-        <f t="shared" si="4"/>
-        <v>2.5260757449731988E+302</v>
-      </c>
-      <c r="G169">
-        <f t="shared" si="5"/>
-        <v>613.69495920354314</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8531,16 +8452,8 @@
       <c r="E170" t="s">
         <v>3</v>
       </c>
-      <c r="F170">
-        <f t="shared" si="4"/>
-        <v>4.2690680090047056E+304</v>
-      </c>
-      <c r="G170">
-        <f t="shared" si="5"/>
-        <v>618.82485791846625</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8555,14 +8468,6 @@
       </c>
       <c r="E171" t="s">
         <v>3</v>
-      </c>
-      <c r="F171">
-        <f t="shared" si="4"/>
-        <v>7.257415615308004E+306</v>
-      </c>
-      <c r="G171">
-        <f t="shared" si="5"/>
-        <v>623.96065635551656</v>
       </c>
     </row>
   </sheetData>
@@ -8572,15 +8477,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F1" sqref="F1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8596,8 +8501,26 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8613,8 +8536,30 @@
       <c r="E2">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>F2^2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>FACT(F2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>129</v>
+      </c>
+      <c r="J2">
+        <f>I2/500</f>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="K2">
+        <f>LN(J2*H2)</f>
+        <v>-1.3547956940605197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8630,8 +8575,30 @@
       <c r="E3">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">F3^2</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="1">FACT(F3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>169</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="2">I3/500</f>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="3">LN(J3*H3)</f>
+        <v>-1.0847093834991182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8647,8 +8614,30 @@
       <c r="E4">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>127</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.254</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>-0.67727383140365516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8664,8 +8653,30 @@
       <c r="E5">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>55</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>-0.41551544396166579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8681,8 +8692,30 @@
       <c r="E6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>-0.55164761828624564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8698,8 +8731,30 @@
       <c r="E7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.51879379341516751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8715,8 +8770,30 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.36464311358790924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8733,7 +8810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8750,7 +8827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8767,7 +8844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8784,7 +8861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8801,7 +8878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8818,7 +8895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8835,7 +8912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17104,15 +17181,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17128,8 +17205,26 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17145,8 +17240,30 @@
       <c r="E2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <f>F2^2</f>
+        <v>1600</v>
+      </c>
+      <c r="H2">
+        <f>FACT(F2)</f>
+        <v>8.1591528324789801E+47</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f>I2/500</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K2">
+        <f>LN(J2*H2)</f>
+        <v>104.79917879689515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17162,8 +17279,30 @@
       <c r="E3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G43" si="0">F3^2</f>
+        <v>1764</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H43" si="1">FACT(F3)</f>
+        <v>1.4050061177528801E+51</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J43" si="2">I3/500</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K43" si="3">LN(J3*H3)</f>
+        <v>112.65588558999099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17179,8 +17318,30 @@
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1849</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>6.0415263063373845E+52</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>116.01162059757638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17196,8 +17357,30 @@
       <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1.1962222086548021E+56</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>124.00793782937313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17213,8 +17396,30 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2116</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>5.5026221598120892E+57</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>126.73796693719412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17230,8 +17435,30 @@
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2209</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>2.5862324151116827E+59</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>132.19755245133828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17247,8 +17474,30 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.2413915592536068E+61</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>135.15246273037201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17264,8 +17513,30 @@
       <c r="E9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>2401</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>6.0828186403426789E+62</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>140.74903112072107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17281,8 +17552,30 @@
       <c r="E10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>3.0414093201713376E+64</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>144.34260039503067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -17298,8 +17591,30 @@
       <c r="E11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>51</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2601</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.5511187532873816E+66</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>148.274426027755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17315,8 +17630,30 @@
       <c r="E12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2704</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>8.0658175170943901E+67</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>152.0921383537119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17332,8 +17669,30 @@
       <c r="E13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>53</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>4.274883284060024E+69</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>156.31374469554493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17349,8 +17708,30 @@
       <c r="E14">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2916</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>2.3084369733924128E+71</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>160.87809288701277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17366,8 +17747,30 @@
       <c r="E15">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>1.2696403353658264E+73</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>165.33171317487367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17383,8 +17786,30 @@
       <c r="E16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>3136</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>7.1099858780486318E+74</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>168.91077776298039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17400,8 +17825,30 @@
       <c r="E17">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>57</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3249</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>4.0526919504877227E+76</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>173.40011613344336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17417,8 +17864,30 @@
       <c r="E18">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>58</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>3364</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>2.3505613312828789E+78</v>
+      </c>
+      <c r="I18">
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>177.3327257724799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17434,8 +17903,30 @@
       <c r="E19">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>59</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3481</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1.3868311854568981E+80</v>
+      </c>
+      <c r="I19">
+        <v>32</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>181.78495666582702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17451,8 +17942,30 @@
       <c r="E20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>8.3209871127413899E+81</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>185.18615404748917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17468,8 +17981,30 @@
       <c r="E21">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>61</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>3721</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>5.0758021387722462E+83</v>
+      </c>
+      <c r="I21">
+        <v>23</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>189.65993340535186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17485,8 +18020,30 @@
       <c r="E22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>62</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>3844</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>3.1469973260387939E+85</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>193.69609601219122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17502,8 +18059,30 @@
       <c r="E23">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>63</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>3969</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1.9826083154044396E+87</v>
+      </c>
+      <c r="I23">
+        <v>31</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>198.22869550534449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17519,8 +18098,30 @@
       <c r="E24">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1.2688693218588414E+89</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>202.17246720908722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17536,8 +18137,30 @@
       <c r="E25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>65</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>4225</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>8.2476505920824715E+90</v>
+      </c>
+      <c r="I25">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>206.17250109183806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17553,8 +18176,30 @@
       <c r="E26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>66</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>4356</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>5.4434493907744319E+92</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>210.53650922100928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17570,8 +18215,30 @@
       <c r="E27">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>67</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>4489</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>3.6471110918188705E+94</v>
+      </c>
+      <c r="I27">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>214.35553935958825</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17587,8 +18254,30 @@
       <c r="E28">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>68</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>4624</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>2.4800355424368301E+96</v>
+      </c>
+      <c r="I28">
+        <v>16</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>218.51442244294793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17604,8 +18293,30 @@
       <c r="E29">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>69</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>4761</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>1.7112245242814127E+98</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>222.7485289475452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17621,8 +18332,30 @@
       <c r="E30">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>70</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>4900</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>1.1978571669969892E+100</v>
+      </c>
+      <c r="I30">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>227.05764881141098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17638,8 +18371,30 @@
       <c r="E31">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>71</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>5041</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>8.5047858856786242E+101</v>
+      </c>
+      <c r="I31">
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>231.0520647018576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17655,8 +18410,30 @@
       <c r="E32">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>72</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>5184</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>6.1234458376886116E+103</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>235.24868811320013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17672,8 +18449,30 @@
       <c r="E33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>73</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>5329</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>4.4701154615126859E+105</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>238.66367881699463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17689,8 +18488,30 @@
       <c r="E34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>74</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>5476</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>3.3078854415193869E+107</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>243.30421614682001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17706,8 +18527,30 @@
       <c r="E35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>75</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>2.4809140811395404E+109</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>247.46755358052906</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17723,8 +18566,30 @@
       <c r="E36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>76</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>5776</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>1.8854947016660506E+111</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>252.08596899326716</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17740,8 +18605,30 @@
       <c r="E37">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>77</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>5929</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>1.4518309202828591E+113</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>256.42977441512085</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17757,8 +18644,30 @@
       <c r="E38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>78</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>6084</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>1.1324281178206295E+115</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>259.40018888069056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17774,8 +18683,30 @@
       <c r="E39">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>79</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>6241</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>8.9461821307829799E+116</v>
+      </c>
+      <c r="I39">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>265.02239970165294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17791,8 +18722,30 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>80</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>7.1569457046263797E+118</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>267.45851618727153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17808,8 +18761,30 @@
       <c r="E41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>81</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>6561</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>5.797126020747369E+120</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>272.95157763061206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17825,8 +18800,30 @@
       <c r="E42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>82</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>6724</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>4.7536433370128435E+122</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>276.25968458920818</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17842,8 +18839,30 @@
       <c r="E43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>83</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>6889</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>3.9455239697206602E+124</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>281.37167237756472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17860,7 +18879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17877,7 +18896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17894,7 +18913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17911,7 +18930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -25637,15 +26656,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25661,8 +26683,26 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25678,8 +26718,30 @@
       <c r="E2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G9" si="0">F2^2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>FACT(F2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f>I2/500</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K2">
+        <f>LN(J2*H2)</f>
+        <v>-5.521460917862246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25695,8 +26757,30 @@
       <c r="E3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H17" si="1">FACT(F3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J17" si="2">I3/500</f>
+        <v>0.01</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K17" si="3">LN(J3*H3)</f>
+        <v>-4.6051701859880909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25712,8 +26796,30 @@
       <c r="E4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>-2.6882475738060303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -25729,8 +26835,30 @@
       <c r="E5">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>-0.92634106772765645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -25746,8 +26874,30 @@
       <c r="E6">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>59</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>1.0409831758314734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -25763,8 +26913,30 @@
       <c r="E7">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I7">
+        <v>92</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.184</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>3.0946722214088944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -25780,8 +26952,30 @@
       <c r="E8">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="I8">
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>4.9185200051884506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -25797,8 +26991,30 @@
       <c r="E9">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>5040</v>
+      </c>
+      <c r="I9">
+        <v>65</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>6.48494053253886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -25814,8 +27030,30 @@
       <c r="E10">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G17" si="4">F10^2</f>
+        <v>64</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>40320</v>
+      </c>
+      <c r="I10">
+        <v>54</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.108</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>8.3789788508873322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -25831,8 +27069,30 @@
       <c r="E11">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>362880</v>
+      </c>
+      <c r="I11">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>9.8830562476636068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -25848,8 +27108,30 @@
       <c r="E12">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>3628800</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>11.834243453819765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -25865,8 +27147,30 @@
       <c r="E13">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>39916800</v>
+      </c>
+      <c r="I13">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>14.46575357779964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -25882,8 +27186,30 @@
       <c r="E14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>479001600</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>14.871218685907804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -25899,8 +27225,30 @@
       <c r="E15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>6227020800</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>17.436168043369342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -25916,8 +27264,30 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>87178291200</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>18.97661308431649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -25933,8 +27303,30 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1307674368000</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>21.684663285418701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -25951,7 +27343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -25968,7 +27360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -25985,7 +27377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -26002,7 +27394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -26019,7 +27411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -26036,7 +27428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -26053,7 +27445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -26070,7 +27462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -26087,7 +27479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -26104,7 +27496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -26121,7 +27513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -26138,7 +27530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -26155,7 +27547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -26172,7 +27564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -34169,10 +35561,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K1" activeCellId="1" sqref="F1:F9 K1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34180,7 +35572,7 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -34196,8 +35588,26 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -34213,8 +35623,30 @@
       <c r="E2">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G9" si="0">F2^2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>FACT(F2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>75</v>
+      </c>
+      <c r="J2">
+        <f>I2/500</f>
+        <v>0.15</v>
+      </c>
+      <c r="K2">
+        <f>LN(J2*H2)</f>
+        <v>-1.8971199848858813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -34230,8 +35662,30 @@
       <c r="E3">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="1">FACT(F3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>132</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="2">I3/500</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="3">LN(J3*H3)</f>
+        <v>-1.3318061758358208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -34247,8 +35701,30 @@
       <c r="E4">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>147</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>-0.53102833108351022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -34264,8 +35740,30 @@
       <c r="E5">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>93</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.186</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0.10975086395911929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -34281,8 +35779,30 @@
       <c r="E6">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.33074156191222798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -34298,8 +35818,30 @@
       <c r="E7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="I7">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>1.5173226235262947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -34315,8 +35857,30 @@
       <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>1.7509374747077999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34332,8 +35896,30 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>40320</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>4.3899948043230586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -34350,7 +35936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -34367,7 +35953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -34384,7 +35970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -34401,7 +35987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -34418,7 +36004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -34435,7 +36021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -42699,5 +44285,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/Data/Data-Preparat.xlsx
+++ b/Document/Data/Data-Preparat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad Naufal\Downloads\Laprak\Laporan-Praktikum-Eksperimen-Fisika\Document\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC43B4CF-34C1-488B-86D9-550F0500136F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBEF2DF-7158-4E3D-9E0E-79C0B0DE086C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2625" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Na-22" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4243" uniqueCount="13">
   <si>
     <t>n</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>n^2</t>
+  </si>
+  <si>
+    <t>ln^2(w.n!)</t>
+  </si>
+  <si>
+    <t>n.ln(w.n!)</t>
   </si>
 </sst>
 </file>
@@ -3412,495 +3418,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Am-241'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ln(w.n!)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.17509908136482941"/>
-                  <c:y val="-7.9542140565762613E-4"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Am-241'!$F$2:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Am-241'!$K$2:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-1.8971199848858813</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.3318061758358208</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.53102833108351022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10975086395911929</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.33074156191222798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5173226235262947</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7509374747077999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3899948043230586</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D557-4467-8312-CE73928274AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1886131151"/>
-        <c:axId val="1876191759"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1886131151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1876191759"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1876191759"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1886131151"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3941,563 +3458,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5054,47 +4015,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE4F067-769F-4CE9-8933-D2326054144F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5358,10 +4278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5369,7 +4289,7 @@
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5403,8 +4323,14 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5442,8 +4368,16 @@
         <f>LN(J2*H2)</f>
         <v>-1.7719568419318752</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>(K2)^2</f>
+        <v>3.1398310496691844</v>
+      </c>
+      <c r="M2">
+        <f>F2*K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5481,8 +4415,16 @@
         <f t="shared" ref="K3:K9" si="3">LN(J3*H3)</f>
         <v>-1.1711829815029451</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="4">(K3)^2</f>
+        <v>1.3716695761621278</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="5">F3*K3</f>
+        <v>-1.1711829815029451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5520,8 +4462,16 @@
         <f t="shared" si="3"/>
         <v>-0.60880603212619433</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>0.37064478475324075</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>-1.2176120642523887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5559,8 +4509,16 @@
         <f t="shared" si="3"/>
         <v>-7.9043207340452962E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>6.2478286266658368E-3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>-0.2371296220213589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5598,8 +4556,16 @@
         <f t="shared" si="3"/>
         <v>0.39743293641090011</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0.15795293894419057</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>1.5897317456436004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5637,8 +4603,16 @@
         <f t="shared" si="3"/>
         <v>0.87546873735389985</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.76644551008403172</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>4.3773436867694997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5676,8 +4650,16 @@
         <f t="shared" si="3"/>
         <v>1.9740810260220096</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>3.8969958973001102</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>11.844486156132058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5715,8 +4697,16 @@
         <f t="shared" si="3"/>
         <v>2.3105532626432224</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>5.3386563795112396</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>16.173872838502557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5733,7 +4723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5750,7 +4740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5767,7 +4757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5784,7 +4774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5801,7 +4791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5818,7 +4808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8477,15 +7467,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K501"/>
+  <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8519,8 +7509,14 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8558,8 +7554,16 @@
         <f>LN(J2*H2)</f>
         <v>-1.3547956940605197</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>(K2)^2</f>
+        <v>1.8354713726449252</v>
+      </c>
+      <c r="M2">
+        <f>F2*K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8597,8 +7601,16 @@
         <f t="shared" ref="K3:K8" si="3">LN(J3*H3)</f>
         <v>-1.0847093834991182</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="4">(K3)^2</f>
+        <v>1.176594446651037</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M8" si="5">F3*K3</f>
+        <v>-1.0847093834991182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8636,8 +7648,16 @@
         <f t="shared" si="3"/>
         <v>-0.67727383140365516</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>0.45869984270418673</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>-1.3545476628073103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8675,8 +7695,16 @@
         <f t="shared" si="3"/>
         <v>-0.41551544396166579</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0.17265308417066022</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>-1.2465463318849974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8714,8 +7742,16 @@
         <f t="shared" si="3"/>
         <v>-0.55164761828624564</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0.30431509476088736</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>-2.2065904731449826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8753,8 +7789,16 @@
         <f t="shared" si="3"/>
         <v>0.51879379341516751</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.26914700008609949</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>2.5939689670758375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8792,8 +7836,16 @@
         <f t="shared" si="3"/>
         <v>0.36464311358790924</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0.13296460028708487</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>2.1878586815274552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8810,7 +7862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8827,7 +7879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8844,7 +7896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8861,7 +7913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8878,7 +7930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8895,7 +7947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8912,7 +7964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17181,15 +16233,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K501"/>
+  <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K43"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17223,8 +16275,14 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17262,8 +16320,16 @@
         <f>LN(J2*H2)</f>
         <v>104.79917879689515</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>(K2)^2</f>
+        <v>10982.867876503598</v>
+      </c>
+      <c r="M2">
+        <f>F2*K2</f>
+        <v>4191.9671518758059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17301,8 +16367,16 @@
         <f t="shared" ref="K3:K43" si="3">LN(J3*H3)</f>
         <v>112.65588558999099</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L43" si="4">(K3)^2</f>
+        <v>12691.34855806514</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M43" si="5">F3*K3</f>
+        <v>4731.5471947796213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17340,8 +16414,16 @@
         <f t="shared" si="3"/>
         <v>116.01162059757638</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>13458.696113676009</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>4988.4996856957841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17379,8 +16461,16 @@
         <f t="shared" si="3"/>
         <v>124.00793782937313</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>15377.968644693672</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>5580.3572023217912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17418,8 +16508,16 @@
         <f t="shared" si="3"/>
         <v>126.73796693719412</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>16062.512263373308</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>5829.9464791109294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17457,8 +16555,16 @@
         <f t="shared" si="3"/>
         <v>132.19755245133828</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>17476.192874124336</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>6213.2849652128989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17496,8 +16602,16 @@
         <f t="shared" si="3"/>
         <v>135.15246273037201</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>18266.188182084596</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>6487.3182110578564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17535,8 +16649,16 @@
         <f t="shared" si="3"/>
         <v>140.74903112072107</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>19810.289761421707</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>6896.7025249153321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17574,8 +16696,16 @@
         <f t="shared" si="3"/>
         <v>144.34260039503067</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>20834.786288799507</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>7217.1300197515338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -17613,8 +16743,16 @@
         <f t="shared" si="3"/>
         <v>148.274426027755</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>21985.305413860187</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>7561.9957274155049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17652,8 +16790,16 @@
         <f t="shared" si="3"/>
         <v>152.0921383537119</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>23132.018549004642</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>7908.7911943930194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17691,8 +16837,16 @@
         <f t="shared" si="3"/>
         <v>156.31374469554493</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>24433.986780743999</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>8284.6284688638807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17730,8 +16884,16 @@
         <f t="shared" si="3"/>
         <v>160.87809288701277</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>25881.760770962308</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>8687.417015898689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17769,8 +16931,16 @@
         <f t="shared" si="3"/>
         <v>165.33171317487367</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>27334.575381338695</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>9093.2442246180526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17808,8 +16978,16 @@
         <f t="shared" si="3"/>
         <v>168.91077776298039</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>28530.850844494951</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>9459.0035547269017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17847,8 +17025,16 @@
         <f t="shared" si="3"/>
         <v>173.40011613344336</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>30067.600275091645</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>9883.8066196062719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17886,8 +17072,16 @@
         <f t="shared" si="3"/>
         <v>177.3327257724799</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>31446.895629897557</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>10285.298094803835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17925,8 +17119,16 @@
         <f t="shared" si="3"/>
         <v>181.78495666582702</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>33045.770469996613</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>10725.312443283794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17964,8 +17166,16 @@
         <f t="shared" si="3"/>
         <v>185.18615404748917</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>34293.911650900387</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>11111.16924284935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -18003,8 +17213,16 @@
         <f t="shared" si="3"/>
         <v>189.65993340535186</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>35970.890339322505</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>11569.255937726464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -18042,8 +17260,16 @@
         <f t="shared" si="3"/>
         <v>193.69609601219122</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>37518.177610364</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>12009.157952755855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -18081,8 +17307,16 @@
         <f t="shared" si="3"/>
         <v>198.22869550534449</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>39294.615721750582</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>12488.407816836703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -18120,8 +17354,16 @@
         <f t="shared" si="3"/>
         <v>202.17246720908722</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>40873.706497409446</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>12939.037901381582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -18159,8 +17401,16 @@
         <f t="shared" si="3"/>
         <v>206.17250109183806</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>42507.100206463962</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>13401.212570969474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -18198,8 +17448,16 @@
         <f t="shared" si="3"/>
         <v>210.53650922100928</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>44325.621714968125</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>13895.409608586613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -18237,8 +17495,16 @@
         <f t="shared" si="3"/>
         <v>214.35553935958825</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>45948.297254139987</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>14361.821137092413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -18276,8 +17542,16 @@
         <f t="shared" si="3"/>
         <v>218.51442244294793</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>47748.552815575109</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>14858.980726120459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -18315,8 +17589,16 @@
         <f t="shared" si="3"/>
         <v>222.7485289475452</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>49616.90714829538</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>15369.648497380618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -18354,8 +17636,16 @@
         <f t="shared" si="3"/>
         <v>227.05764881141098</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>51555.175883766045</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>15894.03541679877</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -18393,8 +17683,16 @@
         <f t="shared" si="3"/>
         <v>231.0520647018576</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>53385.05660299139</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>16404.69659383189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -18432,8 +17730,16 @@
         <f t="shared" si="3"/>
         <v>235.24868811320013</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>55341.945258981708</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>16937.90554415041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -18471,8 +17777,16 @@
         <f t="shared" si="3"/>
         <v>238.66367881699463</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>56960.351586461569</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>17422.448553640606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -18510,8 +17824,16 @@
         <f t="shared" si="3"/>
         <v>243.30421614682001</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>59196.941594818512</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>18004.511994864682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -18549,8 +17871,16 @@
         <f t="shared" si="3"/>
         <v>247.46755358052906</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>61240.190075132021</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>18560.066518539679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -18588,8 +17918,16 @@
         <f t="shared" si="3"/>
         <v>252.08596899326716</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>63547.335763274452</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>19158.533643488303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -18627,8 +17965,16 @@
         <f t="shared" si="3"/>
         <v>256.42977441512085</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>65756.229206589764</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>19745.092629964303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -18666,8 +18012,16 @@
         <f t="shared" si="3"/>
         <v>259.40018888069056</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>67288.457991337942</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>20233.214732693865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -18705,8 +18059,16 @@
         <f t="shared" si="3"/>
         <v>265.02239970165294</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>70236.872343622701</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>20936.769576430583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -18744,8 +18106,16 @@
         <f t="shared" si="3"/>
         <v>267.45851618727153</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>71534.057881096989</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>21396.681294981721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -18783,8 +18153,16 @@
         <f t="shared" si="3"/>
         <v>272.95157763061206</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>74502.563731040049</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>22109.077788079576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -18822,8 +18200,16 @@
         <f t="shared" si="3"/>
         <v>276.25968458920818</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>76319.413329328789</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>22653.294136315071</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -18861,8 +18247,16 @@
         <f t="shared" si="3"/>
         <v>281.37167237756472</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>79170.018016547619</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>23353.848807337872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -18879,7 +18273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18896,7 +18290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18913,7 +18307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18930,7 +18324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -26656,10 +26050,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K501"/>
+  <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26667,7 +26061,7 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26701,8 +26095,14 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26740,8 +26140,16 @@
         <f>LN(J2*H2)</f>
         <v>-5.521460917862246</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>(K2)^2</f>
+        <v>30.486530667480196</v>
+      </c>
+      <c r="M2">
+        <f>F2*K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -26779,8 +26187,16 @@
         <f t="shared" ref="K3:K17" si="3">LN(J3*H3)</f>
         <v>-4.6051701859880909</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L17" si="4">(K3)^2</f>
+        <v>21.207592441913587</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M17" si="5">F3*K3</f>
+        <v>-4.6051701859880909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -26818,8 +26234,16 @@
         <f t="shared" si="3"/>
         <v>-2.6882475738060303</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>7.2266750180740082</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>-5.3764951476120606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -26857,8 +26281,16 @@
         <f t="shared" si="3"/>
         <v>-0.92634106772765645</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0.85810777375881464</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>-2.7790232031829696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -26896,8 +26328,16 @@
         <f t="shared" si="3"/>
         <v>1.0409831758314734</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>1.0836459723641803</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>4.1639327033258935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -26935,8 +26375,16 @@
         <f t="shared" si="3"/>
         <v>3.0946722214088944</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>9.5769961579598615</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>15.473361107044472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -26974,8 +26422,16 @@
         <f t="shared" si="3"/>
         <v>4.9185200051884506</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>24.191839041438996</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>29.511120031130702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -27013,8 +26469,16 @@
         <f t="shared" si="3"/>
         <v>6.48494053253886</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>42.054453710565397</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>45.394583727772023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -27034,7 +26498,7 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G17" si="4">F10^2</f>
+        <f t="shared" ref="G10:G17" si="6">F10^2</f>
         <v>64</v>
       </c>
       <c r="H10">
@@ -27052,8 +26516,16 @@
         <f t="shared" si="3"/>
         <v>8.3789788508873322</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>70.207286583617204</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>67.031830807098657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -27073,7 +26545,7 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="H11">
@@ -27091,8 +26563,16 @@
         <f t="shared" si="3"/>
         <v>9.8830562476636068</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>97.67480079448265</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>88.947506228972458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -27112,7 +26592,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="H12">
@@ -27130,8 +26610,16 @@
         <f t="shared" si="3"/>
         <v>11.834243453819765</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>140.04931812427594</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>118.34243453819765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -27151,7 +26639,7 @@
         <v>11</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="H13">
@@ -27169,8 +26657,16 @@
         <f t="shared" si="3"/>
         <v>14.46575357779964</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>209.25802657362308</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>159.12328935579603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -27190,7 +26686,7 @@
         <v>12</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="H14">
@@ -27208,8 +26704,16 @@
         <f t="shared" si="3"/>
         <v>14.871218685907804</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>221.15314520409345</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>178.45462423089364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -27229,7 +26733,7 @@
         <v>13</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="H15">
@@ -27247,8 +26751,16 @@
         <f t="shared" si="3"/>
         <v>17.436168043369342</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>304.0199560366143</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>226.67018456380146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -27268,7 +26780,7 @@
         <v>14</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
       <c r="H16">
@@ -27286,8 +26798,16 @@
         <f t="shared" si="3"/>
         <v>18.97661308431649</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>360.11184415185181</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>265.67258318043088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -27307,7 +26827,7 @@
         <v>15</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="H17">
@@ -27325,8 +26845,16 @@
         <f t="shared" si="3"/>
         <v>21.684663285418701</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>470.22462180198573</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>325.2699492812805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -27343,7 +26871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -27360,7 +26888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -27377,7 +26905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -27394,7 +26922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -27411,7 +26939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -27428,7 +26956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -27445,7 +26973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -27462,7 +26990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -27479,7 +27007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -27496,7 +27024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -27513,7 +27041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -27530,7 +27058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -27547,7 +27075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -27564,7 +27092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -35561,18 +35089,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K501"/>
+  <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K1" activeCellId="1" sqref="F1:F9 K1:K9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35606,8 +35135,14 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -35645,8 +35180,16 @@
         <f>LN(J2*H2)</f>
         <v>-1.8971199848858813</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>(K2)^2</f>
+        <v>3.5990642370534065</v>
+      </c>
+      <c r="M2">
+        <f>F2*K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -35684,8 +35227,16 @@
         <f t="shared" ref="K3:K9" si="3">LN(J3*H3)</f>
         <v>-1.3318061758358208</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="4">(K3)^2</f>
+        <v>1.7737076899944333</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="5">F3*K3</f>
+        <v>-1.3318061758358208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -35723,8 +35274,16 @@
         <f t="shared" si="3"/>
         <v>-0.53102833108351022</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>0.28199108841333814</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>-1.0620566621670204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -35762,8 +35321,16 @@
         <f t="shared" si="3"/>
         <v>0.10975086395911929</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>1.2045252139773109E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0.32925259187735789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -35801,8 +35368,16 @@
         <f t="shared" si="3"/>
         <v>0.33074156191222798</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0.10938998077614014</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>1.3229662476489119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -35840,8 +35415,16 @@
         <f t="shared" si="3"/>
         <v>1.5173226235262947</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>2.3022679438647176</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>7.5866131176314733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -35879,8 +35462,16 @@
         <f t="shared" si="3"/>
         <v>1.7509374747077999</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>3.0657820403361273</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>10.5056248482468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -35918,8 +35509,16 @@
         <f t="shared" si="3"/>
         <v>4.3899948043230586</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>19.272054381983448</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>35.119958434584468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -35936,7 +35535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -35953,7 +35552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -35970,7 +35569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -35987,7 +35586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -36004,7 +35603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -36021,7 +35620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -44285,6 +43884,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>